--- a/hw01/Algorithm_Data.xlsx
+++ b/hw01/Algorithm_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25540" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -755,7 +755,7 @@
   <dimension ref="A3:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/hw01/Algorithm_Data.xlsx
+++ b/hw01/Algorithm_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25540" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-260" yWindow="1900" windowWidth="25540" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="38">
   <si>
     <t>ALGORITHM</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>CONFIRMATION TESTS - (All puzzles fed into each algorithm to ensure they work, using small inputs)</t>
+  </si>
+  <si>
+    <t>( SCROLL RIGHT FOR GRAPHS -----&gt; )</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -318,8 +324,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -402,7 +418,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -413,6 +429,11 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -423,11 +444,2930 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Jugs Tests - Solution Lengths</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IDDFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$34:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2140098952"/>
+        <c:axId val="-2139115608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2140098952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139115608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2139115608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140098952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Water Jugs Problem - Solution Lengths</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$7,Sheet1!$B$10,Sheet1!$B$13,Sheet1!$B$16,Sheet1!$B$19,Sheet1!$B$22,Sheet1!$B$25)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IDDFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UNICOST</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GREEDY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A-STAR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IDA-STAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$7,Sheet1!$E$10,Sheet1!$E$13,Sheet1!$E$16,Sheet1!$E$19,Sheet1!$E$22,Sheet1!$E$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2135872568"/>
+        <c:axId val="-2138224168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2135872568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2138224168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2138224168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2135872568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Water Jugs - Nodes Created</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$7,Sheet1!$B$10,Sheet1!$B$13,Sheet1!$B$16,Sheet1!$B$19,Sheet1!$B$22,Sheet1!$B$25)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IDDFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UNICOST</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GREEDY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A-STAR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IDA-STAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$G$7,Sheet1!$G$10,Sheet1!$G$13,Sheet1!$G$16,Sheet1!$G$19,Sheet1!$G$22,Sheet1!$G$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Explored List Size</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$7,Sheet1!$I$10,Sheet1!$I$13,Sheet1!$I$16,Sheet1!$I$19,Sheet1!$I$22,Sheet1!$I$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Max Frontier Size</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$7,Sheet1!$H$10,Sheet1!$H$13,Sheet1!$H$16,Sheet1!$H$19,Sheet1!$H$22,Sheet1!$H$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2136684712"/>
+        <c:axId val="-2137259720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2136684712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2137259720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2137259720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2136684712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Path Planning - Solution Length</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$8,Sheet1!$B$11,Sheet1!$B$14,Sheet1!$B$17,Sheet1!$B$20,Sheet1!$B$23,Sheet1!$B$26)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IDDFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UNICOST</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GREEDY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A-STAR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IDA-STAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$8,Sheet1!$E$11,Sheet1!$E$14,Sheet1!$E$17,Sheet1!$E$20,Sheet1!$E$23,Sheet1!$E$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Solution Cost</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$F$8,Sheet1!$F$11,Sheet1!$F$14,Sheet1!$F$17,Sheet1!$F$20,Sheet1!$F$23,Sheet1!$F$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2146989432"/>
+        <c:axId val="2146978328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2146989432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2146978328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2146978328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2146989432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Path Planning - Nodes Created</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$8,Sheet1!$B$11,Sheet1!$B$14,Sheet1!$B$17,Sheet1!$B$20,Sheet1!$B$23,Sheet1!$B$26)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IDDFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UNICOST</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GREEDY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A-STAR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IDA-STAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$G$8,Sheet1!$G$11,Sheet1!$G$14,Sheet1!$G$17,Sheet1!$G$20,Sheet1!$G$23,Sheet1!$G$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Explored List Size</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$8,Sheet1!$I$11,Sheet1!$I$14,Sheet1!$I$17,Sheet1!$I$20,Sheet1!$I$23,Sheet1!$I$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Max Frontier Size</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$8,Sheet1!$H$11,Sheet1!$H$14,Sheet1!$H$17,Sheet1!$H$20,Sheet1!$H$23,Sheet1!$H$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2137590392"/>
+        <c:axId val="-2136421048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2137590392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2136421048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2136421048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2137590392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Burnt Pancakes - Solution Length</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$9,Sheet1!$B$12,Sheet1!$B$15,Sheet1!$B$18,Sheet1!$B$21,Sheet1!$B$24,Sheet1!$B$27)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IDDFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UNICOST</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GREEDY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A-STAR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IDA-STAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$9,Sheet1!$E$12,Sheet1!$E$15,Sheet1!$E$18,Sheet1!$E$24,Sheet1!$E$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2140169560"/>
+        <c:axId val="-2140163688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2140169560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140163688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2140163688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140169560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Burnt Pancakes - Nodes Created</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$9,Sheet1!$B$12,Sheet1!$B$15,Sheet1!$B$18,Sheet1!$B$21,Sheet1!$B$24,Sheet1!$B$27)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IDDFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UNICOST</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GREEDY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A-STAR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IDA-STAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$G$9,Sheet1!$G$12,Sheet1!$G$15,Sheet1!$G$18,Sheet1!$G$21,Sheet1!$G$24,Sheet1!$G$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Explored List Size</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$9,Sheet1!$I$12,Sheet1!$I$15,Sheet1!$I$18,Sheet1!$I$21,Sheet1!$I$24,Sheet1!$I$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Max Frontier Size</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$9,Sheet1!$H$12,Sheet1!$H$15,Sheet1!$H$18,Sheet1!$H$21,Sheet1!$H$24,Sheet1!$H$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2139592088"/>
+        <c:axId val="-2139530504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2139592088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139530504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2139530504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139592088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Jugs Tests</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Nodes Created</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Nodes Created</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IDDFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$34:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2140439256"/>
+        <c:axId val="-2140393368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2140439256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140393368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2140393368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140439256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Jugs Tests - Max Frontier Size</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IDDFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$34:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2137125192"/>
+        <c:axId val="-2137355304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2137125192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2137355304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2137355304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2137125192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Jugs Tests - States in Explored List</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IDDFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$34:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2137059864"/>
+        <c:axId val="-2140226648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2137059864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140226648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2140226648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2137059864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Solution Length (Nodes)</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$44:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>UNICOST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GREEDY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ASTAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$44:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Solution Cost</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$44:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2135521144"/>
+        <c:axId val="-2142170392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2135521144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2142170392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2142170392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2135521144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Path Planning - Nodes Created</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$44:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>UNICOST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GREEDY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ASTAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$44:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>291.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2139170680"/>
+        <c:axId val="-2135851848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2139170680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2135851848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2135851848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139170680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Path Planning - Max Frontier Size</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$44:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>UNICOST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GREEDY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ASTAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$44:$H$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>302.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2139751192"/>
+        <c:axId val="-2135823384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2139751192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2135823384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2135823384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139751192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Path Planning - Explored List Size</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$44:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>UNICOST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GREEDY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ASTAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$44:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2139280088"/>
+        <c:axId val="-2140080520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2139280088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140080520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2140080520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139280088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>A-Star Search for Small Pancakes Problem</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.115604330708661"/>
+          <c:y val="0.139814814814815"/>
+          <c:w val="0.734438757655293"/>
+          <c:h val="0.57617308253135"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>A-Star Search for Small Panakes Problem</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$E$54,Sheet1!$G$54:$I$54)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SOLUTION LENGTH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TOTAL NODES CREATED</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAX FRONTIER SIZE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TOTAL STATES IN EXPLORED LIST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$56,Sheet1!$G$56:$I$56)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1190.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10043.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1189.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2136238440"/>
+        <c:axId val="-2134620696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2136238440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2134620696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2134620696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2136238440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.683455701609458"/>
+          <c:y val="0.142501148461867"/>
+          <c:w val="0.302214718042537"/>
+          <c:h val="0.109743523615331"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>368300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>368300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>13970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -752,10 +3692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J68"/>
+  <dimension ref="A3:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -923,8 +3863,8 @@
       <c r="H10" s="4">
         <v>4</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>20</v>
+      <c r="I10" s="4">
+        <v>0</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>20</v>
@@ -952,8 +3892,8 @@
       <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>20</v>
+      <c r="I11" s="4">
+        <v>0</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>20</v>
@@ -981,8 +3921,8 @@
       <c r="H12" s="4">
         <v>12</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>20</v>
+      <c r="I12" s="4">
+        <v>0</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>20</v>
@@ -1010,8 +3950,8 @@
       <c r="H13" s="5">
         <v>4</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>20</v>
+      <c r="I13" s="5">
+        <v>0</v>
       </c>
       <c r="J13" s="5">
         <v>5</v>
@@ -1039,8 +3979,8 @@
       <c r="H14" s="5">
         <v>1</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>20</v>
+      <c r="I14" s="5">
+        <v>0</v>
       </c>
       <c r="J14" s="5">
         <v>0</v>
@@ -1068,8 +4008,8 @@
       <c r="H15" s="5">
         <v>7</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>20</v>
+      <c r="I15" s="5">
+        <v>0</v>
       </c>
       <c r="J15" s="5">
         <v>3</v>
@@ -1104,7 +4044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:12">
       <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
@@ -1133,7 +4073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:12">
       <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
@@ -1162,7 +4102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:12">
       <c r="B19" s="7" t="s">
         <v>10</v>
       </c>
@@ -1191,7 +4131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:12">
       <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +4160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:12">
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
@@ -1249,7 +4189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:12">
       <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
@@ -1277,8 +4217,11 @@
       <c r="J22" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
@@ -1307,7 +4250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:12">
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
@@ -1336,7 +4279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:12">
       <c r="B25" s="9" t="s">
         <v>12</v>
       </c>
@@ -1358,14 +4301,14 @@
       <c r="H25" s="9">
         <v>7</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>20</v>
+      <c r="I25" s="9">
+        <v>0</v>
       </c>
       <c r="J25" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:12">
       <c r="B26" s="9" t="s">
         <v>12</v>
       </c>
@@ -1387,14 +4330,14 @@
       <c r="H26" s="9">
         <v>2</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>20</v>
+      <c r="I26" s="9">
+        <v>0</v>
       </c>
       <c r="J26" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:12">
       <c r="B27" s="9" t="s">
         <v>12</v>
       </c>
@@ -1416,14 +4359,14 @@
       <c r="H27" s="9">
         <v>10</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>20</v>
+      <c r="I27" s="9">
+        <v>0</v>
       </c>
       <c r="J27" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:12">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1434,7 +4377,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:12">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1446,7 +4389,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:12">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1458,13 +4401,15 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" ht="30">
+    <row r="31" spans="1:12" ht="30">
       <c r="A31" s="10"/>
       <c r="B31" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -1472,7 +4417,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:12">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1567,8 +4512,8 @@
       <c r="H35" s="5">
         <v>4</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>20</v>
+      <c r="I35" s="5">
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>20</v>
@@ -1597,8 +4542,8 @@
       <c r="H36" s="5">
         <v>4</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>20</v>
+      <c r="I36" s="5">
+        <v>0</v>
       </c>
       <c r="J36" s="5">
         <v>6</v>
@@ -1659,7 +4604,9 @@
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="E41" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -1800,8 +4747,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" t="s">
+      <c r="B47" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="10"/>
@@ -1864,7 +4810,9 @@
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
+      <c r="E52" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
@@ -2156,6 +5104,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
